--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -212,9 +302,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -317,6 +404,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -371,9 +467,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -431,9 +524,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -459,6 +549,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -517,16 +613,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -997,22 +1093,22 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1020,22 +1116,22 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1043,22 +1139,22 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1066,22 +1162,22 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1089,22 +1185,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1112,22 +1208,22 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1135,22 +1231,22 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1158,22 +1254,22 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1181,22 +1277,22 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1204,22 +1300,22 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1227,22 +1323,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1250,22 +1346,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1273,39 +1369,39 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1412,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1435,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1458,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1481,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1504,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1527,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1550,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1573,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1596,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1619,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1642,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1665,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1688,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1711,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1734,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,22 +1757,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1684,19 +1780,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1803,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1826,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1849,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1872,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1895,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1918,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,22 +1941,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1868,19 +1964,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,22 +1987,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1914,22 +2010,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1937,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,620 +2056,620 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2581,19 +2677,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2700,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2627,22 +2723,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2650,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2769,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,22 +2792,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2719,22 +2815,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2742,22 +2838,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2765,22 +2861,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2788,22 +2884,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2811,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2834,19 +2930,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,22 +2953,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2880,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -2903,22 +2999,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2926,19 +3022,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,22 +3045,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -2972,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3091,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3018,19 +3114,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3064,19 +3160,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>21</v>
@@ -3087,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3229,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3252,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,22 +3275,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3202,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,22 +3321,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3248,22 +3344,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3271,22 +3367,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3294,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3413,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3436,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,22 +3551,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3478,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3501,22 +3597,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3524,22 +3620,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3547,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3593,617 +3689,617 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4214,22 +4310,22 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>34</v>
@@ -4237,19 +4333,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4260,24 +4356,944 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -613,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2381,7 +2381,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2390,7 +2390,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,7 +2404,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2413,7 +2413,7 @@
         <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2427,7 +2427,7 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2436,7 +2436,7 @@
         <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2450,7 +2450,7 @@
         <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2473,7 +2473,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2482,7 +2482,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2496,7 +2496,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2505,7 +2505,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2519,7 +2519,7 @@
         <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2542,7 +2542,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2551,7 +2551,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2574,7 +2574,7 @@
         <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,7 +2588,7 @@
         <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2597,7 +2597,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2611,7 +2611,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2620,7 +2620,7 @@
         <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2631,25 +2631,25 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -2657,19 +2657,19 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2680,16 +2680,16 @@
         <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2703,16 +2703,16 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2726,7 +2726,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2735,7 +2735,7 @@
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2749,7 +2749,7 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2758,7 +2758,7 @@
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2772,7 +2772,7 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2781,7 +2781,7 @@
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2795,16 +2795,16 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2818,7 +2818,7 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2827,10 +2827,10 @@
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2841,7 +2841,7 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2850,10 +2850,10 @@
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2864,7 +2864,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2873,10 +2873,10 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2887,7 +2887,7 @@
         <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2896,7 +2896,7 @@
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2910,19 +2910,19 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2933,7 +2933,7 @@
         <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
@@ -2942,7 +2942,7 @@
         <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2956,19 @@
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2979,7 +2979,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2988,7 +2988,7 @@
         <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3002,7 +3002,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3011,10 +3011,10 @@
         <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3025,7 +3025,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3034,10 +3034,10 @@
         <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3048,7 +3048,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3057,10 +3057,10 @@
         <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3071,7 +3071,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3080,10 +3080,10 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3094,7 +3094,7 @@
         <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3103,10 +3103,10 @@
         <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3117,7 +3117,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3126,10 +3126,10 @@
         <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3140,7 +3140,7 @@
         <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3149,7 +3149,7 @@
         <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3163,19 +3163,19 @@
         <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3186,7 +3186,7 @@
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3195,7 +3195,7 @@
         <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3209,7 +3209,7 @@
         <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3218,7 +3218,7 @@
         <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3232,16 +3232,16 @@
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3255,7 +3255,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3264,10 +3264,10 @@
         <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3278,7 +3278,7 @@
         <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3287,10 +3287,10 @@
         <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3301,7 +3301,7 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3310,10 +3310,10 @@
         <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3324,7 +3324,7 @@
         <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3333,7 +3333,7 @@
         <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>21</v>
@@ -3344,22 +3344,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3370,19 +3370,19 @@
         <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3393,16 +3393,16 @@
         <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,16 +3416,16 @@
         <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3439,7 +3439,7 @@
         <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3448,7 +3448,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,7 +3462,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3471,7 +3471,7 @@
         <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3485,7 +3485,7 @@
         <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3494,7 +3494,7 @@
         <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3508,16 +3508,16 @@
         <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3531,7 +3531,7 @@
         <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3540,10 +3540,10 @@
         <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3554,7 +3554,7 @@
         <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3563,10 +3563,10 @@
         <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3577,7 +3577,7 @@
         <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3586,10 +3586,10 @@
         <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3600,7 +3600,7 @@
         <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3609,7 +3609,7 @@
         <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3623,19 +3623,19 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3646,7 +3646,7 @@
         <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3655,7 +3655,7 @@
         <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3669,19 @@
         <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3692,7 +3692,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3701,7 +3701,7 @@
         <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>21</v>
@@ -3715,7 +3715,7 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3724,10 +3724,10 @@
         <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3738,7 +3738,7 @@
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3747,10 +3747,10 @@
         <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3761,7 +3761,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3770,10 +3770,10 @@
         <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3784,7 +3784,7 @@
         <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3793,10 +3793,10 @@
         <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3807,7 +3807,7 @@
         <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3816,10 +3816,10 @@
         <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3830,7 +3830,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3839,10 +3839,10 @@
         <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3853,7 +3853,7 @@
         <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3862,7 +3862,7 @@
         <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>21</v>
@@ -3876,19 +3876,19 @@
         <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3899,7 +3899,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3908,7 +3908,7 @@
         <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3922,7 +3922,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3931,7 +3931,7 @@
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3945,16 +3945,16 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3968,7 +3968,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3977,10 +3977,10 @@
         <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3991,7 +3991,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4000,10 +4000,10 @@
         <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4014,7 +4014,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4023,10 +4023,10 @@
         <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4037,7 +4037,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4046,7 +4046,7 @@
         <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>21</v>
@@ -4057,22 +4057,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4083,16 +4083,16 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4106,16 +4106,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4129,7 +4129,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4138,7 +4138,7 @@
         <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4152,16 +4152,16 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4175,16 +4175,16 @@
         <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4198,7 +4198,7 @@
         <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4207,7 +4207,7 @@
         <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4221,16 +4221,16 @@
         <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4244,7 +4244,7 @@
         <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4253,7 +4253,7 @@
         <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4267,16 +4267,16 @@
         <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4290,7 +4290,7 @@
         <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4299,7 +4299,7 @@
         <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4313,16 +4313,16 @@
         <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4336,7 +4336,7 @@
         <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4345,7 +4345,7 @@
         <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4359,7 +4359,7 @@
         <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4368,7 +4368,7 @@
         <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4382,7 +4382,7 @@
         <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4391,7 +4391,7 @@
         <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4405,16 +4405,16 @@
         <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4428,16 +4428,16 @@
         <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4460,7 +4460,7 @@
         <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4474,7 +4474,7 @@
         <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4483,7 +4483,7 @@
         <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4497,7 +4497,7 @@
         <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4506,7 +4506,7 @@
         <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4520,16 +4520,16 @@
         <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4543,7 +4543,7 @@
         <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4552,7 +4552,7 @@
         <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4563,25 +4563,25 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173">
@@ -4589,19 +4589,19 @@
         <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>169</v>
@@ -4612,16 +4612,16 @@
         <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4635,16 +4635,16 @@
         <v>166</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4658,7 +4658,7 @@
         <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4667,7 +4667,7 @@
         <v>167</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4681,7 +4681,7 @@
         <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4690,7 +4690,7 @@
         <v>167</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4704,7 +4704,7 @@
         <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4713,7 +4713,7 @@
         <v>167</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4727,16 +4727,16 @@
         <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4750,7 +4750,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4759,10 +4759,10 @@
         <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>169</v>
@@ -4773,7 +4773,7 @@
         <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4782,10 +4782,10 @@
         <v>167</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>169</v>
@@ -4796,7 +4796,7 @@
         <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4805,10 +4805,10 @@
         <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>169</v>
@@ -4819,7 +4819,7 @@
         <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4828,7 +4828,7 @@
         <v>167</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>168</v>
@@ -4842,19 +4842,19 @@
         <v>166</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>169</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -4874,7 +4874,7 @@
         <v>167</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4888,19 +4888,19 @@
         <v>166</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>169</v>
@@ -4911,7 +4911,7 @@
         <v>166</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4920,7 +4920,7 @@
         <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>168</v>
@@ -4934,7 +4934,7 @@
         <v>166</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4943,10 +4943,10 @@
         <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>169</v>
@@ -4957,7 +4957,7 @@
         <v>166</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4966,10 +4966,10 @@
         <v>167</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>169</v>
@@ -4980,7 +4980,7 @@
         <v>166</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4989,10 +4989,10 @@
         <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>169</v>
@@ -5003,7 +5003,7 @@
         <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5012,10 +5012,10 @@
         <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>169</v>
@@ -5026,7 +5026,7 @@
         <v>166</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5035,10 +5035,10 @@
         <v>167</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>169</v>
@@ -5049,7 +5049,7 @@
         <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5058,10 +5058,10 @@
         <v>167</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>169</v>
@@ -5072,7 +5072,7 @@
         <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5081,7 +5081,7 @@
         <v>167</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>168</v>
@@ -5095,19 +5095,19 @@
         <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>169</v>
@@ -5118,7 +5118,7 @@
         <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
@@ -5127,7 +5127,7 @@
         <v>167</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5141,7 +5141,7 @@
         <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
@@ -5150,7 +5150,7 @@
         <v>167</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5161,25 +5161,25 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -5187,19 +5187,19 @@
         <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>34</v>
@@ -5210,19 +5210,19 @@
         <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>34</v>
@@ -5233,16 +5233,16 @@
         <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5256,44 +5256,21 @@
         <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
@@ -1717,7 +1717,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>74</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
@@ -4845,7 +4845,7 @@
         <v>97</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>167</v>
@@ -4868,7 +4868,7 @@
         <v>99</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>167</v>
@@ -4877,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>169</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_125.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -613,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1510,7 +1522,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>74</v>
@@ -1533,7 +1545,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>74</v>
@@ -1579,7 +1591,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>74</v>
@@ -1602,7 +1614,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -1668,7 +1680,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1677,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1691,7 +1703,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1700,7 +1712,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1714,7 +1726,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1947,7 +1959,7 @@
         <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>74</v>
@@ -1970,7 +1982,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>74</v>
@@ -2019,10 +2031,10 @@
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2036,16 +2048,16 @@
         <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2056,65 +2068,65 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2137,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2160,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2183,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2206,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2252,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2275,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2298,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2321,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2344,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2367,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2390,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2413,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2436,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2459,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2482,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2505,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2528,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2551,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2574,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2597,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2620,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2631,114 +2643,114 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2746,19 +2758,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2781,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2804,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2815,22 +2827,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2838,22 +2850,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2861,22 +2873,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2884,22 +2896,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2907,19 +2919,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2942,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2965,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2976,22 +2988,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2999,22 +3011,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3022,19 +3034,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -3045,19 +3057,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3068,22 +3080,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3091,22 +3103,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3114,19 +3126,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3137,22 +3149,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3160,22 +3172,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3183,19 +3195,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3206,22 +3218,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>34</v>
@@ -3229,19 +3241,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3264,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>21</v>
@@ -3275,22 +3287,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3298,22 +3310,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3321,22 +3333,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3344,22 +3356,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3367,19 +3379,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3390,22 +3402,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3413,19 +3425,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3436,22 +3448,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>34</v>
@@ -3459,22 +3471,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>34</v>
@@ -3482,22 +3494,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3505,19 +3517,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3528,22 +3540,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3551,19 +3563,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3574,22 +3586,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3597,19 +3609,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3620,19 +3632,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3655,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,22 +3678,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3689,22 +3701,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3712,22 +3724,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3735,22 +3747,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3758,22 +3770,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3781,19 +3793,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>21</v>
@@ -3804,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,22 +3839,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3850,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>21</v>
@@ -3873,22 +3885,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3896,19 +3908,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3919,22 +3931,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>34</v>
@@ -3942,19 +3954,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3977,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>21</v>
@@ -3988,19 +4000,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -4034,19 +4046,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>21</v>
@@ -4057,19 +4069,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4092,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4115,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4126,19 +4138,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4149,22 +4161,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>34</v>
@@ -4172,19 +4184,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4195,22 +4207,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>34</v>
@@ -4218,22 +4230,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>34</v>
@@ -4241,19 +4253,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4264,19 +4276,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4287,19 +4299,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4310,19 +4322,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4333,19 +4345,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4356,19 +4368,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4379,19 +4391,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4402,10 +4414,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -4414,7 +4426,7 @@
         <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4425,19 +4437,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4448,19 +4460,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4471,19 +4483,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4494,19 +4506,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4517,19 +4529,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4540,19 +4552,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4563,600 +4575,600 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198">
@@ -5164,22 +5176,22 @@
         <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199">
@@ -5187,22 +5199,22 @@
         <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="200">
@@ -5210,22 +5222,22 @@
         <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201">
@@ -5233,22 +5245,22 @@
         <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202">
@@ -5256,21 +5268,251 @@
         <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>34</v>
       </c>
     </row>
